--- a/SP_Sklad/TempLate/MakedProduct.xlsx
+++ b/SP_Sklad/TempLate/MakedProduct.xlsx
@@ -18,7 +18,7 @@
     <definedName name="sectionPrice">Лист1!#REF!</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Лист1!$7:$8</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -405,7 +405,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -415,9 +415,6 @@
     </xf>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -874,7 +871,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="B1:N102"/>
+  <dimension ref="B1:N12"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
@@ -899,179 +896,179 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
     </row>
     <row r="2" spans="2:14" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
     </row>
-    <row r="3" spans="2:14" s="19" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="20" t="s">
+    <row r="3" spans="2:14" s="18" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="21" t="e">
+      <c r="D3" s="20" t="e">
         <f>CONCATENATE("з "&amp;XLRPARAMS_StartDate," по "&amp;XLRPARAMS_EndDate)</f>
         <v>#NAME?</v>
       </c>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="22"/>
-      <c r="M3" s="22"/>
-      <c r="N3" s="22"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="21"/>
     </row>
-    <row r="4" spans="2:14" s="19" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="23" t="s">
+    <row r="4" spans="2:14" s="18" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="24"/>
-      <c r="D4" s="25" t="e">
+      <c r="C4" s="23"/>
+      <c r="D4" s="24" t="e">
         <f>XLRPARAMS_GRP</f>
         <v>#NAME?</v>
       </c>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="22"/>
-      <c r="M4" s="22"/>
-      <c r="N4" s="22"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="21"/>
     </row>
-    <row r="5" spans="2:14" s="19" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="20" t="s">
+    <row r="5" spans="2:14" s="18" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="21" t="e">
+      <c r="D5" s="20" t="e">
         <f>XLRPARAMS_WH</f>
         <v>#NAME?</v>
       </c>
     </row>
     <row r="6" spans="2:14" ht="7.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="7" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="30" t="s">
+      <c r="B7" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="34" t="s">
+      <c r="C7" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="35"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="30" t="s">
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="H7" s="30" t="s">
+      <c r="H7" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="I7" s="30" t="s">
+      <c r="I7" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="J7" s="34" t="s">
+      <c r="J7" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="K7" s="30" t="s">
+      <c r="K7" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="L7" s="30" t="s">
+      <c r="L7" s="29" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="2:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="33"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="39"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="31"/>
-      <c r="J8" s="37"/>
-      <c r="K8" s="31"/>
-      <c r="L8" s="33"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="36"/>
+      <c r="K8" s="30"/>
+      <c r="L8" s="32"/>
     </row>
     <row r="9" spans="2:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="13" t="e">
+      <c r="B9" s="12" t="e">
         <f>MakedProduct_NUM</f>
         <v>#NAME?</v>
       </c>
-      <c r="C9" s="27" t="e">
+      <c r="C9" s="26" t="e">
         <f>MakedProduct_MATNAME</f>
         <v>#NAME?</v>
       </c>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="17" t="e">
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="16" t="e">
         <f>MakedProduct_MSRNAME</f>
         <v>#NAME?</v>
       </c>
-      <c r="H9" s="16" t="e">
+      <c r="H9" s="15" t="e">
         <f>MakedProduct_OnDateOut</f>
         <v>#NAME?</v>
       </c>
-      <c r="I9" s="26" t="e">
+      <c r="I9" s="25" t="e">
         <f>MakedProduct_FromWh</f>
         <v>#NAME?</v>
       </c>
-      <c r="J9" s="14" t="e">
+      <c r="J9" s="13" t="e">
         <f>MakedProduct_AmountOut</f>
         <v>#NAME?</v>
       </c>
-      <c r="K9" s="15" t="e">
+      <c r="K9" s="14" t="e">
         <f>MakedProduct_AmountIn</f>
         <v>#NAME?</v>
       </c>
-      <c r="L9" s="18" t="e">
+      <c r="L9" s="17" t="e">
         <f>J9/K9</f>
         <v>#NAME?</v>
       </c>
     </row>
     <row r="10" spans="2:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="7"/>
-      <c r="C10" s="11" t="s">
+      <c r="B10" s="6"/>
+      <c r="C10" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="12" t="s">
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="K10" s="12" t="s">
+      <c r="K10" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="L10" s="12" t="s">
+      <c r="L10" s="11" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1093,108 +1090,6 @@
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
     </row>
-    <row r="13" spans="2:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-    </row>
-    <row r="14" spans="2:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="2:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="2:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="24" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="33" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="34" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="35" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="36" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="37" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="39" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="40" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="42" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="43" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="45" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="46" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="47" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="48" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="49" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="50" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="51" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="53" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="54" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="55" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="56" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="57" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="58" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="59" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="60" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="61" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="62" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="63" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="64" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="66" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="67" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="68" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="69" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="70" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="71" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="72" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="73" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="74" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="75" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="76" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="77" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="78" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="79" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="80" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="81" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="82" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="83" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="84" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="85" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="86" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="87" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="88" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="89" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="90" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="91" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="92" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="93" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="94" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="95" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="96" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="97" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="98" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="99" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="100" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="101" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="102" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="C9:F9"/>
